--- a/biology/Médecine/1885_en_santé_et_médecine/1885_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1885_en_santé_et_médecine/1885_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1885_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1885_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1885 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1885_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1885_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Janvier : le médecin français Georges Gilles de La Tourette publie dans Les Archives de Neurologie un article intitulé « Étude sur une affection caractérisée par de l’incoordination motrice accompagnée d’écholalie et de coprolalie (jumping, Latah, Myriachit) »[1], première description du syndrome de Gilles de La Tourette[2].
-6 juillet : Louis Pasteur (1822-1895), après avoir mis au point le vaccin contre la rage, pratique la première vaccination sur le jeune Joseph Meister[3].
-14 juillet : le bactériologiste austro-allemand Theodor Escherich décrit la bactérie escherichia coli devant la Society for Morphology and Physiology de Munich[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Janvier : le médecin français Georges Gilles de La Tourette publie dans Les Archives de Neurologie un article intitulé « Étude sur une affection caractérisée par de l’incoordination motrice accompagnée d’écholalie et de coprolalie (jumping, Latah, Myriachit) », première description du syndrome de Gilles de La Tourette.
+6 juillet : Louis Pasteur (1822-1895), après avoir mis au point le vaccin contre la rage, pratique la première vaccination sur le jeune Joseph Meister.
+14 juillet : le bactériologiste austro-allemand Theodor Escherich décrit la bactérie escherichia coli devant la Society for Morphology and Physiology de Munich.
 Le médecin allemand Ernst von Bergmann (1836-1907) met en pratique l’asepsie en chirurgie.
-L'épidémiologiste et pathologiste américain Theobald Smith découvre Salmonella enterica la première espèce de Salmonella, alors qu'il était assistant de recherche du vétérinaire Daniel Elmer Salmon[5].</t>
+L'épidémiologiste et pathologiste américain Theobald Smith découvre Salmonella enterica la première espèce de Salmonella, alors qu'il était assistant de recherche du vétérinaire Daniel Elmer Salmon.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1885_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1885_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>21 juin : William Boyd (en) (mort en 1979) médecin pathologiste. Il développe un carcinome de la glande salivaire en 1948 mais meurt à 93 ans d'une pneumonie[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>21 juin : William Boyd (en) (mort en 1979) médecin pathologiste. Il développe un carcinome de la glande salivaire en 1948 mais meurt à 93 ans d'une pneumonie.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1885_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1885_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>9 avril : Henri Camille Carville (né en 1828), neurologue français.
 29 juillet : Henri Milne Edwards (né en 1800), médecin et zoologiste français.</t>
